--- a/outputs-HGR-r202/f__Dialisteraceae.xlsx
+++ b/outputs-HGR-r202/f__Dialisteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,23 +479,23 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT24126.fa</t>
+          <t>even_MAG-GUT33566.fa</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.098521318161617e-05</v>
+        <v>0.02827133765423384</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9999391115457273</v>
+        <v>0.9274464402298119</v>
       </c>
       <c r="D2" t="n">
-        <v>2.220414359111291e-14</v>
+        <v>1.270228921932561e-12</v>
       </c>
       <c r="E2" t="n">
-        <v>3.990324106866647e-05</v>
+        <v>0.04428222211468399</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999391115457273</v>
+        <v>0.9274464402298119</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,23 +511,23 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT33604.fa</t>
+          <t>even_MAG-GUT37167.fa</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.842137509279777e-06</v>
+        <v>2.926523078372279e-07</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9999832356513294</v>
+        <v>0.9999996653624914</v>
       </c>
       <c r="D3" t="n">
-        <v>2.220436885916262e-14</v>
+        <v>2.220445863992231e-14</v>
       </c>
       <c r="E3" t="n">
-        <v>7.922211139069185e-06</v>
+        <v>4.198517851515991e-08</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999832356513294</v>
+        <v>0.9999996653624914</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,23 +543,23 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT35807.fa</t>
+          <t>even_MAG-GUT55383.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.747891605446802e-06</v>
+        <v>1.604526842155428e-06</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9999937590616876</v>
+        <v>0.9999979795511574</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220442601585044e-14</v>
+        <v>2.220444940189831e-14</v>
       </c>
       <c r="E4" t="n">
-        <v>1.493046684559092e-06</v>
+        <v>4.159219782246613e-07</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999937590616876</v>
+        <v>0.9999979795511574</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,230 +567,6 @@
         </is>
       </c>
       <c r="H4" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT37167.fa</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2.926523078372279e-07</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.9999996653624914</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.220445863992231e-14</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4.198517851515991e-08</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.9999996653624914</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT38551.fa</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>8.194762611961983e-06</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9999888053838072</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.220439944821735e-14</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2.999853558525775e-06</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.9999888053838072</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT42358.fa</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>7.50396414668588e-06</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.999988622854393</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2.220439960468611e-14</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3.873181437977088e-06</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.999988622854393</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT55383.fa</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.604526842155428e-06</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9999979795511574</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2.220444940189831e-14</v>
-      </c>
-      <c r="E8" t="n">
-        <v>4.159219782246613e-07</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0.9999979795511574</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66378.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>2.646964619833503e-05</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9999721922536406</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2.220430832201958e-14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.33810013883896e-06</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.9999721922536406</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT66382.fa</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0.0001217634949004837</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9997634570494592</v>
-      </c>
-      <c r="D10" t="n">
-        <v>2.220349889406561e-14</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.000114779455618058</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.9997634570494592</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT73491.fa</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2.006222485553208e-05</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9999783373506957</v>
-      </c>
-      <c r="D11" t="n">
-        <v>2.220434399605599e-14</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.60042442648413e-06</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.9999783373506957</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>g__Dialister</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
         <is>
           <t>g__Dialister</t>
         </is>

--- a/outputs-HGR-r202/f__Dialisteraceae.xlsx
+++ b/outputs-HGR-r202/f__Dialisteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -497,6 +502,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -524,6 +534,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -551,6 +566,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -578,6 +598,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -605,6 +630,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -632,6 +662,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -659,6 +694,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -686,6 +726,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -713,6 +758,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -740,6 +790,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -767,6 +822,11 @@
           <t>g__Dialister</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -790,6 +850,11 @@
         <v>0.9999783373506957</v>
       </c>
       <c r="G13" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>g__Dialister</t>
         </is>

--- a/outputs-HGR-r202/f__Dialisteraceae.xlsx
+++ b/outputs-HGR-r202/f__Dialisteraceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,6 +764,102 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66378.fa</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>2.646964619833503e-05</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9999721922536406</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.220430832201958e-14</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.33810013883896e-06</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9999721922536406</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT66382.fa</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.0001217634949004837</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.9997634570494592</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.220349889406561e-14</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.000114779455618058</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.9997634570494592</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT73491.fa</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>2.006222485553208e-05</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9999783373506957</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.220434399605599e-14</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.60042442648413e-06</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.9999783373506957</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>g__Dialister</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
